--- a/excel/final exam_data.xlsx
+++ b/excel/final exam_data.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SNHU17\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15915" windowHeight="6720" activeTab="1"/>
   </bookViews>
@@ -15,7 +10,7 @@
     <sheet name="classes" sheetId="1" r:id="rId1"/>
     <sheet name="Loan" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Apex English Center</t>
   </si>
@@ -82,6 +77,9 @@
   </si>
   <si>
     <t>Perspnal Loan</t>
+  </si>
+  <si>
+    <t>alo</t>
   </si>
 </sst>
 </file>
@@ -200,7 +198,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -235,7 +233,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -412,7 +410,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -571,10 +569,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:B8"/>
+  <dimension ref="A3:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -583,13 +581,13 @@
     <col min="2" max="2" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B3" s="2"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -597,7 +595,7 @@
         <v>1500000000</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -605,7 +603,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -613,9 +611,14 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
